--- a/TestResults/LOGIN_Testcase.xlsx
+++ b/TestResults/LOGIN_Testcase.xlsx
@@ -1482,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
